--- a/CVX_Kenya/Optimization/ Pulping_price.xlsx
+++ b/CVX_Kenya/Optimization/ Pulping_price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580887AE-DCF4-4F6A-8756-A061F5B98E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5375C8-CD17-4E7A-BDB0-98856FEAD810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,14 +547,12 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -739,10 +737,10 @@
         <v>2.1317300824448471</v>
       </c>
       <c r="J4">
+        <v>2.2205523545624111</v>
+      </c>
+      <c r="K4">
         <v>0.45033840249043039</v>
-      </c>
-      <c r="K4">
-        <v>2.2205523545624111</v>
       </c>
       <c r="L4">
         <v>3.7824328574351971</v>
@@ -811,10 +809,10 @@
         <v>1.7053847694769499</v>
       </c>
       <c r="J5">
+        <v>1.7764426164844409</v>
+      </c>
+      <c r="K5">
         <v>0.56292277089084264</v>
-      </c>
-      <c r="K5">
-        <v>1.7764426164844409</v>
       </c>
       <c r="L5">
         <v>3.772717097861459</v>
@@ -883,10 +881,10 @@
         <v>1.2790391063317661</v>
       </c>
       <c r="J6">
+        <v>1.3323325136384321</v>
+      </c>
+      <c r="K6">
         <v>0.75056338396270628</v>
-      </c>
-      <c r="K6">
-        <v>1.3323325136384321</v>
       </c>
       <c r="L6">
         <v>3.7630013302550651</v>
@@ -955,10 +953,10 @@
         <v>0.85269308928400278</v>
       </c>
       <c r="J7">
+        <v>0.88822204214387313</v>
+      </c>
+      <c r="K7">
         <v>1.1258446115414249</v>
-      </c>
-      <c r="K7">
-        <v>0.88822204214387313</v>
       </c>
       <c r="L7">
         <v>3.7532855546742212</v>
@@ -1027,10 +1025,10 @@
         <v>0.42634672019630671</v>
       </c>
       <c r="J8">
+        <v>0.44411120394101988</v>
+      </c>
+      <c r="K8">
         <v>2.2516882959178961</v>
-      </c>
-      <c r="K8">
-        <v>0.44411120394101988</v>
       </c>
       <c r="L8">
         <v>3.7435697710461682</v>

--- a/CVX_Kenya/Optimization/ Pulping_price.xlsx
+++ b/CVX_Kenya/Optimization/ Pulping_price.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5375C8-CD17-4E7A-BDB0-98856FEAD810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Intervention</t>
   </si>
@@ -130,26 +124,23 @@
     <t>kton/FU</t>
   </si>
   <si>
-    <t>-0.00016875</t>
-  </si>
-  <si>
-    <t>-0.000135</t>
-  </si>
-  <si>
-    <t>-0.00010125</t>
-  </si>
-  <si>
-    <t>-6.75e-05</t>
-  </si>
-  <si>
-    <t>-3.375e-05</t>
+    <t>0.007236263677499999</t>
+  </si>
+  <si>
+    <t>0.0073</t>
+  </si>
+  <si>
+    <t>0.0074</t>
+  </si>
+  <si>
+    <t>0.0075</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,14 +203,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -266,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,27 +281,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,24 +315,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,19 +490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -639,7 +581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,364 +667,292 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="1"/>
       <c r="H4">
-        <v>0.95999991986900568</v>
+        <v>0.9599999198690057</v>
       </c>
       <c r="I4">
-        <v>2.1317300824448471</v>
+        <v>-0.007236260920763016</v>
       </c>
       <c r="J4">
-        <v>2.2205523545624111</v>
+        <v>-0.007537772421637724</v>
       </c>
       <c r="K4">
-        <v>0.45033840249043039</v>
+        <v>-132.6651886079006</v>
       </c>
       <c r="L4">
-        <v>3.7824328574351971</v>
+        <v>3.733832011683262</v>
       </c>
       <c r="M4">
-        <v>1.520370205980726E-3</v>
+        <v>-9.400697308592498e-06</v>
       </c>
       <c r="N4">
-        <v>1.3496787890326229</v>
+        <v>-7.727183401584625e-06</v>
       </c>
       <c r="O4">
-        <v>0.18760534608736629</v>
+        <v>-0.004975569900125265</v>
       </c>
       <c r="P4">
-        <v>7.6368795242160559E-2</v>
+        <v>-0.0004055488388985395</v>
       </c>
       <c r="Q4">
-        <v>0.2406581309624016</v>
+        <v>-0.0001302221789956093</v>
       </c>
       <c r="R4">
-        <v>4.2535808170214304E-3</v>
+        <v>0.00425358081702143</v>
       </c>
       <c r="S4">
-        <v>1.9797964305325881E-3</v>
+        <v>0.001979796430532588</v>
       </c>
       <c r="T4">
-        <v>1.174013130366802E-3</v>
+        <v>0.001174013130366802</v>
       </c>
       <c r="U4">
-        <v>0.28020749241113663</v>
+        <v>0.2802074924111366</v>
       </c>
       <c r="V4">
-        <v>5.4423870053142309E-2</v>
+        <v>0.05442387005314231</v>
       </c>
       <c r="W4">
-        <v>0.50728149595670402</v>
+        <v>0.507281495956704</v>
       </c>
       <c r="X4">
-        <v>37.828582155168988</v>
+        <v>37.34257369764964</v>
       </c>
       <c r="Y4">
-        <v>1.718349849033984E-2</v>
+        <v>0.001885789457446663</v>
       </c>
       <c r="Z4">
-        <v>13.4979619034566</v>
+        <v>0.001096741296350956</v>
       </c>
       <c r="AA4">
-        <v>2.1562609532848001</v>
+        <v>0.230451793409884</v>
       </c>
       <c r="AB4">
-        <v>2.461005179677159</v>
+        <v>0.05312164826318622</v>
       </c>
       <c r="AC4">
-        <v>1.2709694483783101</v>
+        <v>0.5032260075677186</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1"/>
       <c r="H5">
-        <v>0.95999991986900568</v>
+        <v>0.9599999198690057</v>
       </c>
       <c r="I5">
-        <v>1.7053847694769499</v>
+        <v>-0.007303890772163868</v>
       </c>
       <c r="J5">
-        <v>1.7764426164844409</v>
+        <v>-0.007608220189393872</v>
       </c>
       <c r="K5">
-        <v>0.56292277089084264</v>
+        <v>-131.4367848335982</v>
       </c>
       <c r="L5">
-        <v>3.772717097861459</v>
+        <v>3.733831806355738</v>
       </c>
       <c r="M5">
-        <v>1.216296665006666E-3</v>
+        <v>-9.488561772741377e-06</v>
       </c>
       <c r="N5">
-        <v>1.0797434768173839</v>
+        <v>-7.799593731760979e-06</v>
       </c>
       <c r="O5">
-        <v>0.1500843386165798</v>
+        <v>-0.005022070603445172</v>
       </c>
       <c r="P5">
-        <v>6.1095061246305697E-2</v>
+        <v>-0.0004093397874385118</v>
       </c>
       <c r="Q5">
-        <v>0.1925265840254724</v>
+        <v>-0.0001314394176006317</v>
       </c>
       <c r="R5">
-        <v>4.2535808170214304E-3</v>
+        <v>0.00425358081702143</v>
       </c>
       <c r="S5">
-        <v>1.9797964305325881E-3</v>
+        <v>0.001979796430532588</v>
       </c>
       <c r="T5">
-        <v>1.174013130366802E-3</v>
+        <v>0.001174013130366802</v>
       </c>
       <c r="U5">
-        <v>0.28020749241113663</v>
+        <v>0.2802074924111366</v>
       </c>
       <c r="V5">
-        <v>5.4423870053142309E-2</v>
+        <v>0.05442387005314231</v>
       </c>
       <c r="W5">
-        <v>0.50728149595670402</v>
+        <v>0.507281495956704</v>
       </c>
       <c r="X5">
-        <v>37.731424559431623</v>
+        <v>37.3425716443744</v>
       </c>
       <c r="Y5">
-        <v>1.414276308059925E-2</v>
+        <v>0.001884910812805174</v>
       </c>
       <c r="Z5">
-        <v>10.79860878130421</v>
+        <v>0.001096017193049192</v>
       </c>
       <c r="AA5">
-        <v>1.7810508785769339</v>
+        <v>0.2299867863766849</v>
       </c>
       <c r="AB5">
-        <v>1.9796897103078659</v>
+        <v>0.05310947587713599</v>
       </c>
       <c r="AC5">
-        <v>1.1182321084197611</v>
+        <v>0.5031880980823189</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="1"/>
       <c r="H6">
-        <v>0.95999991986900568</v>
+        <v>0.9599999198690057</v>
       </c>
       <c r="I6">
-        <v>1.2790391063317661</v>
+        <v>-7465447.354810665</v>
       </c>
       <c r="J6">
-        <v>1.3323325136384321</v>
+        <v>-7776508.310364592</v>
       </c>
       <c r="K6">
-        <v>0.75056338396270628</v>
+        <v>-1.285924170706784e-07</v>
       </c>
       <c r="L6">
-        <v>3.7630013302550651</v>
+        <v>-97115.20777700318</v>
       </c>
       <c r="M6">
-        <v>9.1222287665004842E-4</v>
+        <v>-12035.13963251395</v>
       </c>
       <c r="N6">
-        <v>0.80980794178321958</v>
+        <v>-856708.7400158155</v>
       </c>
       <c r="O6">
-        <v>0.1125633004121482</v>
+        <v>-1815307.730183643</v>
       </c>
       <c r="P6">
-        <v>4.582131514325738E-2</v>
+        <v>-1957404.550830049</v>
       </c>
       <c r="Q6">
-        <v>0.14439499797299499</v>
+        <v>-1653215.13026653</v>
       </c>
       <c r="R6">
-        <v>4.2535808170214304E-3</v>
+        <v>0.00425358081702143</v>
       </c>
       <c r="S6">
-        <v>1.9797964305325881E-3</v>
+        <v>0.001979796430532588</v>
       </c>
       <c r="T6">
-        <v>1.174013130366802E-3</v>
+        <v>0.001174013130366802</v>
       </c>
       <c r="U6">
-        <v>0.28020749241113663</v>
+        <v>0.2802074924111366</v>
       </c>
       <c r="V6">
-        <v>5.4423870053142309E-2</v>
+        <v>0.05442387005314231</v>
       </c>
       <c r="W6">
-        <v>0.50728149595670402</v>
+        <v>0.507281495956704</v>
       </c>
       <c r="X6">
-        <v>37.634266883367673</v>
+        <v>-971152.0735164509</v>
       </c>
       <c r="Y6">
-        <v>1.110202519703307E-2</v>
+        <v>-120351.394345343</v>
       </c>
       <c r="Z6">
-        <v>8.0992534309625626</v>
+        <v>-8567087.398984142</v>
       </c>
       <c r="AA6">
-        <v>1.405840496532619</v>
+        <v>-18153077.02162894</v>
       </c>
       <c r="AB6">
-        <v>1.498373849783093</v>
+        <v>-16532151.24824143</v>
       </c>
       <c r="AC6">
-        <v>0.96549464738927782</v>
+        <v>-19574045.001019</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1"/>
       <c r="H7">
-        <v>0.95999991986900568</v>
+        <v>0.9599999198690057</v>
       </c>
       <c r="I7">
-        <v>0.85269308928400278</v>
+        <v>-0.007506775669753551</v>
       </c>
       <c r="J7">
-        <v>0.88822204214387313</v>
+        <v>-0.007819558642023501</v>
       </c>
       <c r="K7">
-        <v>1.1258446115414249</v>
+        <v>-127.8844556041626</v>
       </c>
       <c r="L7">
-        <v>3.7532855546742212</v>
+        <v>3.733831190416822</v>
       </c>
       <c r="M7">
-        <v>6.081488318159245E-4</v>
+        <v>-9.752127880346961e-06</v>
       </c>
       <c r="N7">
-        <v>0.53987218404654413</v>
+        <v>-8.016126230359077e-06</v>
       </c>
       <c r="O7">
-        <v>7.5042231008410454E-2</v>
+        <v>-0.005161572713404894</v>
       </c>
       <c r="P7">
-        <v>3.054755600169301E-2</v>
+        <v>-0.0004207105375826359</v>
       </c>
       <c r="Q7">
-        <v>9.6263371873646975E-2</v>
+        <v>-0.0001350906677544117</v>
       </c>
       <c r="R7">
-        <v>4.2535808170214304E-3</v>
+        <v>0.00425358081702143</v>
       </c>
       <c r="S7">
-        <v>1.9797964305325881E-3</v>
+        <v>0.001979796430532588</v>
       </c>
       <c r="T7">
-        <v>1.174013130366802E-3</v>
+        <v>0.001174013130366802</v>
       </c>
       <c r="U7">
-        <v>0.28020749241113663</v>
+        <v>0.2802074924111366</v>
       </c>
       <c r="V7">
-        <v>5.4423870053142309E-2</v>
+        <v>0.05442387005314231</v>
       </c>
       <c r="W7">
-        <v>0.50728149595670402</v>
+        <v>0.507281495956704</v>
       </c>
       <c r="X7">
-        <v>37.537109127559233</v>
+        <v>37.34256548498524</v>
       </c>
       <c r="Y7">
-        <v>8.0612847486918326E-3</v>
+        <v>0.001882275151729118</v>
       </c>
       <c r="Z7">
-        <v>5.3998958535958081</v>
+        <v>0.001093851868063211</v>
       </c>
       <c r="AA7">
-        <v>1.0306298024952409</v>
+        <v>0.2285917652770877</v>
       </c>
       <c r="AB7">
-        <v>1.0170575887896121</v>
+        <v>0.05307296337559819</v>
       </c>
       <c r="AC7">
-        <v>0.81275705597363412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="H8">
-        <v>0.95999991986900568</v>
-      </c>
-      <c r="I8">
-        <v>0.42634672019630671</v>
-      </c>
-      <c r="J8">
-        <v>0.44411120394101988</v>
-      </c>
-      <c r="K8">
-        <v>2.2516882959178961</v>
-      </c>
-      <c r="L8">
-        <v>3.7435697710461682</v>
-      </c>
-      <c r="M8">
-        <v>3.0407454141823109E-4</v>
-      </c>
-      <c r="N8">
-        <v>0.26993620349094272</v>
-      </c>
-      <c r="O8">
-        <v>3.7521130871027708E-2</v>
-      </c>
-      <c r="P8">
-        <v>1.5273784520104529E-2</v>
-      </c>
-      <c r="Q8">
-        <v>4.8131705727428198E-2</v>
-      </c>
-      <c r="R8">
-        <v>4.2535808170214304E-3</v>
-      </c>
-      <c r="S8">
-        <v>1.9797964305325881E-3</v>
-      </c>
-      <c r="T8">
-        <v>1.174013130366802E-3</v>
-      </c>
-      <c r="U8">
-        <v>0.28020749241113663</v>
-      </c>
-      <c r="V8">
-        <v>5.4423870053142309E-2</v>
-      </c>
-      <c r="W8">
-        <v>0.50728149595670402</v>
-      </c>
-      <c r="X8">
-        <v>37.439951291278703</v>
-      </c>
-      <c r="Y8">
-        <v>5.0205418447148986E-3</v>
-      </c>
-      <c r="Z8">
-        <v>2.700536048039794</v>
-      </c>
-      <c r="AA8">
-        <v>0.65541880112141371</v>
-      </c>
-      <c r="AB8">
-        <v>0.53574092732742429</v>
-      </c>
-      <c r="AC8">
-        <v>0.6600193411577493</v>
+        <v>0.5030743905808777</v>
       </c>
     </row>
   </sheetData>
